--- a/TECHGROUNDS_ASSIGNMENTS/Presentations_and_Softskills/Rubric/Rubrics_Soft Skills_Startgesprek_Cloud 13 .xlsx
+++ b/TECHGROUNDS_ASSIGNMENTS/Presentations_and_Softskills/Rubric/Rubrics_Soft Skills_Startgesprek_Cloud 13 .xlsx
@@ -116,7 +116,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="209">
   <si>
     <t xml:space="preserve">Onderwerp</t>
   </si>
@@ -157,7 +157,7 @@
     <t xml:space="preserve">Deelt code. Legt uit aan iemand anders: wie, wat, waar en waarom. Noot: zelfs/juist/ook als je het bij het verkeerde eind hebt! Door het te delen kan je erachter komen hoe iets mooier/simpeler en beter kan.</t>
   </si>
   <si>
-    <t xml:space="preserve">3 -5</t>
+    <t xml:space="preserve">timeboxen: tijdslimiet ergens op zetten </t>
   </si>
   <si>
     <t xml:space="preserve">Computational
@@ -356,6 +356,9 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">abstractiuon?algoritme?</t>
+  </si>
+  <si>
     <t xml:space="preserve">Rules, values and
 guiding principles.</t>
   </si>
@@ -378,6 +381,9 @@
     <t xml:space="preserve">2 – 3</t>
   </si>
   <si>
+    <t xml:space="preserve">rules staan in de drive van techgrounds</t>
+  </si>
+  <si>
     <t xml:space="preserve">TG Soft Skills: Library</t>
   </si>
   <si>
@@ -399,6 +405,9 @@
     <t xml:space="preserve">Hij/zij houdt voorgaande punten in stand, en werkt efficiënt. Accepteert dat er ook een limit is, gaat niet kosten wat het kost door.</t>
   </si>
   <si>
+    <t xml:space="preserve">timemangement, prepareren is goed en voordelig, ga daar mee door</t>
+  </si>
+  <si>
     <t xml:space="preserve">Presenting.</t>
   </si>
   <si>
@@ -417,7 +426,7 @@
     <t xml:space="preserve">Top of the bill, pakkende intro, neemt je mee, overtuigd, voelt zich comfortabel, vleugje humor, anekdotes, geeft goed gevoel mee. Blijft hangen.</t>
   </si>
   <si>
-    <t xml:space="preserve">02- 03</t>
+    <t xml:space="preserve">heb nog weinig ervaring, maar wil eraan werken</t>
   </si>
   <si>
     <t xml:space="preserve">Self reflection.</t>
@@ -438,7 +447,8 @@
     <t xml:space="preserve">Hij/zij brengt learnings in de praktijk. Persoonlijke groei en ontwikkeling zijn aan de orde van de dag.</t>
   </si>
   <si>
-    <t xml:space="preserve">03- 04</t>
+    <t xml:space="preserve">als je geen structureel zelfrefelction doet, dan alleen organisch.: reflecteer ook als er iets goed ging , hoe kan eht dat ik nog energiek ben? Ook al heb ik hard gewerkt. Wat ging er goed en minder?
+CASPER denkt dat deze nu op het moment het beste te imporoven valt. </t>
   </si>
   <si>
     <t xml:space="preserve">Solution oriented.</t>
@@ -459,6 +469,9 @@
     <t xml:space="preserve">Hij/zij reviewt de oplossing en haalt er learnings uit.</t>
   </si>
   <si>
+    <t xml:space="preserve">geeft fouten toe</t>
+  </si>
+  <si>
     <t xml:space="preserve">Networking.</t>
   </si>
   <si>
@@ -478,6 +491,9 @@
   </si>
   <si>
     <t xml:space="preserve">2- 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bart gaat over networking praten</t>
   </si>
   <si>
     <t xml:space="preserve">Assertiveness.</t>
@@ -511,9 +527,6 @@
 2) Hij/zij verwerpt onaanvaardbare voorstellen respectvol doch beslist.</t>
   </si>
   <si>
-    <t xml:space="preserve">2 -3</t>
-  </si>
-  <si>
     <t xml:space="preserve">Communication.</t>
   </si>
   <si>
@@ -532,6 +545,9 @@
     <t xml:space="preserve">Heeft alle voorgaande punten en kan ook goed luisteren, samenvatten en doorvragen. Maakt ook gebruik van de non verbale communicatie.</t>
   </si>
   <si>
+    <t xml:space="preserve">3- 4</t>
+  </si>
+  <si>
     <t xml:space="preserve">Employability.</t>
   </si>
   <si>
@@ -568,6 +584,9 @@
     <t xml:space="preserve">Toont altijd eigen initiatief. Ziet iedere mogelijkheid en bedreiging en anticipeert hierop. Kijkt terug naar wat gebeurd is, anticipeert hierop en werkt met het oog op de toekomst.</t>
   </si>
   <si>
+    <t xml:space="preserve">ik train easy , neem zo veewl als mogelijk breaks om je hoofd te verfirssen.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Self management.</t>
   </si>
   <si>
@@ -589,6 +608,9 @@
     <t xml:space="preserve">1, 2, 3, 4 en Procesbewaking/aanspreken op verantwoordelijkheden. Concensus over gemaakte afspraken. Fases in het proces herkennen en aansturen waar nodig.</t>
   </si>
   <si>
+    <t xml:space="preserve">het belangrijkste is dat iedereen zich prettig voelt in eht team , hele starkke rolverdeling is niet altijd productief. Ga incheken , maak afspraken of iemand zich lekker voelt , vraag of iemand wat nodig heeft, ONTHOUD WE HEBBEN HETZELFDE DOEL!</t>
+  </si>
+  <si>
     <t xml:space="preserve">Empathie.</t>
   </si>
   <si>
@@ -605,9 +627,6 @@
   </si>
   <si>
     <t xml:space="preserve">Heeft altijd empathisch vermogen. Denk bij alles wat hij/zij doet aan de gedachten en gevoelens van anderen, maar dit zonder de aandacht naar zichzelf te trekken.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 -4</t>
   </si>
   <si>
     <t xml:space="preserve">Start- en voortgangsgesprekken + badge:</t>
@@ -1304,292 +1323,284 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="70">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="19" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="21" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="23" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="21" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="24" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="19" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="24" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="25" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="25" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="25" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="25" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="19" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="25" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="25" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1885,703 +1896,738 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="2" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E43" activeCellId="0" sqref="E43"/>
+      <selection pane="bottomLeft" activeCell="H10" activeCellId="0" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="3" style="0" width="21.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="23.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="24.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="3" style="1" width="21.88"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="18.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="7" t="n">
+      <c r="B2" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C2" s="8" t="n">
+      <c r="C2" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="D2" s="9" t="n">
+      <c r="D2" s="10" t="n">
         <v>3</v>
       </c>
-      <c r="E2" s="10" t="n">
+      <c r="E2" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="F2" s="11" t="n">
+      <c r="F2" s="12" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="34.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
     </row>
     <row r="4" customFormat="false" ht="189.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="0" t="s">
+      <c r="G4" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="H4" s="0" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="177.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="18" t="s">
+      <c r="F5" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="0" t="n">
+      <c r="G5" s="1" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="203.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="14" t="s">
+      <c r="H5" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="16" t="s">
+    </row>
+    <row r="6" customFormat="false" ht="189.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="B6" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="C6" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="D6" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="16" t="s">
+      <c r="E6" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="19" t="s">
+      <c r="F6" s="17" t="s">
         <v>26</v>
       </c>
+      <c r="G6" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="30.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
+      <c r="A7" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
     </row>
     <row r="8" customFormat="false" ht="131.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="22" t="s">
+      <c r="A8" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="23" t="s">
+      <c r="B8" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="22" t="s">
+      <c r="C8" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="F8" s="24" t="s">
+      <c r="D8" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="G8" s="0" t="n">
+      <c r="E8" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" s="1" t="n">
         <v>3</v>
       </c>
+      <c r="H8" s="0" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="131.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" s="22" t="s">
+      <c r="A9" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="E9" s="22" t="s">
+      <c r="B9" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="F9" s="22" t="s">
+      <c r="C9" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="G9" s="19" t="s">
+      <c r="D9" s="23" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="102.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="14" t="s">
+      <c r="E9" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="B10" s="23" t="s">
+      <c r="F9" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="G9" s="26" t="n">
+        <v>2</v>
+      </c>
+      <c r="H9" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="D10" s="22" t="s">
+    </row>
+    <row r="10" customFormat="false" ht="276.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="E10" s="22" t="s">
+      <c r="B10" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="F10" s="22" t="s">
+      <c r="C10" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="G10" s="19" t="s">
+      <c r="D10" s="23" t="s">
         <v>47</v>
       </c>
+      <c r="E10" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10" s="26" t="n">
+        <v>3</v>
+      </c>
+      <c r="H10" s="27" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="87.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="B11" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="C11" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="D11" s="22" t="s">
+      <c r="A11" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="E11" s="22" t="s">
+      <c r="B11" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="F11" s="22" t="s">
+      <c r="C11" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="G11" s="0" t="n">
+      <c r="D11" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="G11" s="1" t="n">
         <v>4</v>
       </c>
+      <c r="H11" s="0" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="116.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="B12" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="C12" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="D12" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="E12" s="22" t="s">
+      <c r="A12" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="F12" s="22" t="s">
+      <c r="B12" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="G12" s="0" t="s">
+      <c r="C12" s="23" t="s">
         <v>60</v>
       </c>
+      <c r="D12" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="E12" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="F12" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H12" s="0" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="160.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="B13" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="C13" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="D13" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="E13" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="F13" s="22" t="s">
+      <c r="A13" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="G13" s="0" t="s">
+      <c r="B13" s="23" t="s">
         <v>67</v>
       </c>
+      <c r="C13" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="D13" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="E13" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="F13" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="G13" s="1" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="131.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="B14" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="C14" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="D14" s="26" t="s">
-        <v>71</v>
-      </c>
-      <c r="E14" s="26" t="s">
+      <c r="A14" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="F14" s="26" t="s">
+      <c r="B14" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="G14" s="0" t="n">
+      <c r="C14" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="D14" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="E14" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="G14" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="H14" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="174.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="B15" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="C15" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="D15" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="E15" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="F15" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="G15" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="H15" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="160.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="B16" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="C16" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="D16" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="E16" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="F16" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="G16" s="1" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" customFormat="false" ht="174.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="B15" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="C15" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="D15" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="E15" s="26" t="s">
-        <v>78</v>
-      </c>
-      <c r="F15" s="26" t="s">
-        <v>79</v>
-      </c>
-      <c r="G15" s="0" t="n">
+      <c r="H16" s="0" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="31" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="32" t="s">
+        <v>93</v>
+      </c>
+      <c r="B18" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="C18" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="D18" s="34" t="s">
+        <v>96</v>
+      </c>
+      <c r="E18" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="F18" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="G18" s="35" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" customFormat="false" ht="160.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="B16" s="26" t="s">
-        <v>81</v>
-      </c>
-      <c r="C16" s="27" t="s">
-        <v>82</v>
-      </c>
-      <c r="D16" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="E16" s="26" t="s">
-        <v>84</v>
-      </c>
-      <c r="F16" s="26" t="s">
-        <v>85</v>
-      </c>
-      <c r="G16" s="0" t="n">
+      <c r="H18" s="35" t="s">
+        <v>99</v>
+      </c>
+      <c r="I18" s="35"/>
+      <c r="J18" s="35"/>
+      <c r="K18" s="35"/>
+      <c r="L18" s="35"/>
+      <c r="M18" s="35"/>
+      <c r="N18" s="35"/>
+      <c r="O18" s="35"/>
+      <c r="P18" s="35"/>
+      <c r="Q18" s="35"/>
+      <c r="R18" s="35"/>
+    </row>
+    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="32"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="35"/>
+      <c r="J19" s="35"/>
+      <c r="K19" s="35"/>
+      <c r="L19" s="35"/>
+      <c r="M19" s="35"/>
+      <c r="N19" s="35"/>
+      <c r="O19" s="35"/>
+      <c r="P19" s="35"/>
+      <c r="Q19" s="35"/>
+      <c r="R19" s="35"/>
+    </row>
+    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="32"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="35"/>
+      <c r="J20" s="35"/>
+      <c r="K20" s="35"/>
+      <c r="L20" s="35"/>
+      <c r="M20" s="35"/>
+      <c r="N20" s="35"/>
+      <c r="O20" s="35"/>
+      <c r="P20" s="35"/>
+      <c r="Q20" s="35"/>
+      <c r="R20" s="35"/>
+    </row>
+    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="32"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="35"/>
+      <c r="I21" s="35"/>
+      <c r="J21" s="35"/>
+      <c r="K21" s="35"/>
+      <c r="L21" s="35"/>
+      <c r="M21" s="35"/>
+      <c r="N21" s="35"/>
+      <c r="O21" s="35"/>
+      <c r="P21" s="35"/>
+      <c r="Q21" s="35"/>
+      <c r="R21" s="35"/>
+    </row>
+    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="32"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="35"/>
+      <c r="J22" s="35"/>
+      <c r="K22" s="35"/>
+      <c r="L22" s="35"/>
+      <c r="M22" s="35"/>
+      <c r="N22" s="35"/>
+      <c r="O22" s="35"/>
+      <c r="P22" s="35"/>
+      <c r="Q22" s="35"/>
+      <c r="R22" s="35"/>
+    </row>
+    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="32"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="35"/>
+      <c r="J23" s="35"/>
+      <c r="K23" s="35"/>
+      <c r="L23" s="35"/>
+      <c r="M23" s="35"/>
+      <c r="N23" s="35"/>
+      <c r="O23" s="35"/>
+      <c r="P23" s="35"/>
+      <c r="Q23" s="35"/>
+      <c r="R23" s="35"/>
+    </row>
+    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="32"/>
+      <c r="B24" s="32"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="35"/>
+      <c r="H24" s="35"/>
+      <c r="I24" s="35"/>
+      <c r="J24" s="35"/>
+      <c r="K24" s="35"/>
+      <c r="L24" s="35"/>
+      <c r="M24" s="35"/>
+      <c r="N24" s="35"/>
+      <c r="O24" s="35"/>
+      <c r="P24" s="35"/>
+      <c r="Q24" s="35"/>
+      <c r="R24" s="35"/>
+    </row>
+    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="32"/>
+      <c r="B25" s="32"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="35"/>
+      <c r="I25" s="35"/>
+      <c r="J25" s="35"/>
+      <c r="K25" s="35"/>
+      <c r="L25" s="35"/>
+      <c r="M25" s="35"/>
+      <c r="N25" s="35"/>
+      <c r="O25" s="35"/>
+      <c r="P25" s="35"/>
+      <c r="Q25" s="35"/>
+      <c r="R25" s="35"/>
+    </row>
+    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="32"/>
+      <c r="B26" s="32"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="35"/>
+      <c r="I26" s="35"/>
+      <c r="J26" s="35"/>
+      <c r="K26" s="35"/>
+      <c r="L26" s="35"/>
+      <c r="M26" s="35"/>
+      <c r="N26" s="35"/>
+      <c r="O26" s="35"/>
+      <c r="P26" s="35"/>
+      <c r="Q26" s="35"/>
+      <c r="R26" s="35"/>
+    </row>
+    <row r="27" customFormat="false" ht="279.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="36" t="s">
+        <v>100</v>
+      </c>
+      <c r="B27" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="C27" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="D27" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="E27" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="F27" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="G27" s="1" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="28" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="29" t="s">
-        <v>87</v>
-      </c>
-      <c r="B18" s="30" t="s">
-        <v>88</v>
-      </c>
-      <c r="C18" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="D18" s="31" t="s">
-        <v>90</v>
-      </c>
-      <c r="E18" s="30" t="s">
-        <v>91</v>
-      </c>
-      <c r="F18" s="30" t="s">
-        <v>92</v>
-      </c>
-      <c r="G18" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="H18" s="32"/>
-      <c r="I18" s="32"/>
-      <c r="J18" s="32"/>
-      <c r="K18" s="32"/>
-      <c r="L18" s="32"/>
-      <c r="M18" s="32"/>
-      <c r="N18" s="32"/>
-      <c r="O18" s="32"/>
-      <c r="P18" s="32"/>
-      <c r="Q18" s="32"/>
-      <c r="R18" s="32"/>
-    </row>
-    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="29"/>
-      <c r="B19" s="29"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="32"/>
-      <c r="H19" s="32"/>
-      <c r="I19" s="32"/>
-      <c r="J19" s="32"/>
-      <c r="K19" s="32"/>
-      <c r="L19" s="32"/>
-      <c r="M19" s="32"/>
-      <c r="N19" s="32"/>
-      <c r="O19" s="32"/>
-      <c r="P19" s="32"/>
-      <c r="Q19" s="32"/>
-      <c r="R19" s="32"/>
-    </row>
-    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="29"/>
-      <c r="B20" s="29"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="32"/>
-      <c r="H20" s="32"/>
-      <c r="I20" s="32"/>
-      <c r="J20" s="32"/>
-      <c r="K20" s="32"/>
-      <c r="L20" s="32"/>
-      <c r="M20" s="32"/>
-      <c r="N20" s="32"/>
-      <c r="O20" s="32"/>
-      <c r="P20" s="32"/>
-      <c r="Q20" s="32"/>
-      <c r="R20" s="32"/>
-    </row>
-    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="29"/>
-      <c r="B21" s="29"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="32"/>
-      <c r="H21" s="32"/>
-      <c r="I21" s="32"/>
-      <c r="J21" s="32"/>
-      <c r="K21" s="32"/>
-      <c r="L21" s="32"/>
-      <c r="M21" s="32"/>
-      <c r="N21" s="32"/>
-      <c r="O21" s="32"/>
-      <c r="P21" s="32"/>
-      <c r="Q21" s="32"/>
-      <c r="R21" s="32"/>
-    </row>
-    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="29"/>
-      <c r="B22" s="29"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="32"/>
-      <c r="H22" s="32"/>
-      <c r="I22" s="32"/>
-      <c r="J22" s="32"/>
-      <c r="K22" s="32"/>
-      <c r="L22" s="32"/>
-      <c r="M22" s="32"/>
-      <c r="N22" s="32"/>
-      <c r="O22" s="32"/>
-      <c r="P22" s="32"/>
-      <c r="Q22" s="32"/>
-      <c r="R22" s="32"/>
-    </row>
-    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="29"/>
-      <c r="B23" s="29"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="32"/>
-      <c r="H23" s="32"/>
-      <c r="I23" s="32"/>
-      <c r="J23" s="32"/>
-      <c r="K23" s="32"/>
-      <c r="L23" s="32"/>
-      <c r="M23" s="32"/>
-      <c r="N23" s="32"/>
-      <c r="O23" s="32"/>
-      <c r="P23" s="32"/>
-      <c r="Q23" s="32"/>
-      <c r="R23" s="32"/>
-    </row>
-    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="29"/>
-      <c r="B24" s="29"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="32"/>
-      <c r="H24" s="32"/>
-      <c r="I24" s="32"/>
-      <c r="J24" s="32"/>
-      <c r="K24" s="32"/>
-      <c r="L24" s="32"/>
-      <c r="M24" s="32"/>
-      <c r="N24" s="32"/>
-      <c r="O24" s="32"/>
-      <c r="P24" s="32"/>
-      <c r="Q24" s="32"/>
-      <c r="R24" s="32"/>
-    </row>
-    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="29"/>
-      <c r="B25" s="29"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="29"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="32"/>
-      <c r="H25" s="32"/>
-      <c r="I25" s="32"/>
-      <c r="J25" s="32"/>
-      <c r="K25" s="32"/>
-      <c r="L25" s="32"/>
-      <c r="M25" s="32"/>
-      <c r="N25" s="32"/>
-      <c r="O25" s="32"/>
-      <c r="P25" s="32"/>
-      <c r="Q25" s="32"/>
-      <c r="R25" s="32"/>
-    </row>
-    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="29"/>
-      <c r="B26" s="29"/>
-      <c r="C26" s="29"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="29"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="32"/>
-      <c r="H26" s="32"/>
-      <c r="I26" s="32"/>
-      <c r="J26" s="32"/>
-      <c r="K26" s="32"/>
-      <c r="L26" s="32"/>
-      <c r="M26" s="32"/>
-      <c r="N26" s="32"/>
-      <c r="O26" s="32"/>
-      <c r="P26" s="32"/>
-      <c r="Q26" s="32"/>
-      <c r="R26" s="32"/>
-    </row>
-    <row r="27" customFormat="false" ht="279.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="33" t="s">
-        <v>93</v>
-      </c>
-      <c r="B27" s="26" t="s">
-        <v>94</v>
-      </c>
-      <c r="C27" s="26" t="s">
-        <v>95</v>
-      </c>
-      <c r="D27" s="26" t="s">
-        <v>96</v>
-      </c>
-      <c r="E27" s="26" t="s">
-        <v>97</v>
-      </c>
-      <c r="F27" s="26" t="s">
-        <v>98</v>
-      </c>
-      <c r="G27" s="0" t="s">
-        <v>99</v>
-      </c>
-    </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="34" t="s">
-        <v>100</v>
-      </c>
-      <c r="B28" s="35"/>
-      <c r="C28" s="35"/>
-      <c r="D28" s="35"/>
-      <c r="E28" s="35"/>
-      <c r="F28" s="35"/>
+      <c r="A28" s="37" t="s">
+        <v>106</v>
+      </c>
+      <c r="B28" s="38"/>
+      <c r="C28" s="38"/>
+      <c r="D28" s="38"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="38"/>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="30" t="s">
-        <v>101</v>
-      </c>
-      <c r="B29" s="30"/>
-      <c r="C29" s="30"/>
-      <c r="D29" s="30"/>
-      <c r="E29" s="30"/>
-      <c r="F29" s="30"/>
+      <c r="A29" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="B29" s="33"/>
+      <c r="C29" s="33"/>
+      <c r="D29" s="33"/>
+      <c r="E29" s="33"/>
+      <c r="F29" s="33"/>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="30"/>
-      <c r="B30" s="30"/>
-      <c r="C30" s="30"/>
-      <c r="D30" s="30"/>
-      <c r="E30" s="30"/>
-      <c r="F30" s="30"/>
+      <c r="A30" s="33"/>
+      <c r="B30" s="33"/>
+      <c r="C30" s="33"/>
+      <c r="D30" s="33"/>
+      <c r="E30" s="33"/>
+      <c r="F30" s="33"/>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="30"/>
-      <c r="B31" s="30"/>
-      <c r="C31" s="30"/>
-      <c r="D31" s="30"/>
-      <c r="E31" s="30"/>
-      <c r="F31" s="30"/>
+      <c r="A31" s="33"/>
+      <c r="B31" s="33"/>
+      <c r="C31" s="33"/>
+      <c r="D31" s="33"/>
+      <c r="E31" s="33"/>
+      <c r="F31" s="33"/>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="30"/>
-      <c r="B32" s="30"/>
-      <c r="C32" s="30"/>
-      <c r="D32" s="30"/>
-      <c r="E32" s="30"/>
-      <c r="F32" s="30"/>
+      <c r="A32" s="33"/>
+      <c r="B32" s="33"/>
+      <c r="C32" s="33"/>
+      <c r="D32" s="33"/>
+      <c r="E32" s="33"/>
+      <c r="F32" s="33"/>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="30"/>
-      <c r="B33" s="30"/>
-      <c r="C33" s="30"/>
-      <c r="D33" s="30"/>
-      <c r="E33" s="30"/>
-      <c r="F33" s="30"/>
+      <c r="A33" s="33"/>
+      <c r="B33" s="33"/>
+      <c r="C33" s="33"/>
+      <c r="D33" s="33"/>
+      <c r="E33" s="33"/>
+      <c r="F33" s="33"/>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="30"/>
-      <c r="B34" s="30"/>
-      <c r="C34" s="30"/>
-      <c r="D34" s="30"/>
-      <c r="E34" s="30"/>
-      <c r="F34" s="30"/>
+      <c r="A34" s="33"/>
+      <c r="B34" s="33"/>
+      <c r="C34" s="33"/>
+      <c r="D34" s="33"/>
+      <c r="E34" s="33"/>
+      <c r="F34" s="33"/>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="30"/>
-      <c r="B35" s="30"/>
-      <c r="C35" s="30"/>
-      <c r="D35" s="30"/>
-      <c r="E35" s="30"/>
-      <c r="F35" s="30"/>
+      <c r="A35" s="33"/>
+      <c r="B35" s="33"/>
+      <c r="C35" s="33"/>
+      <c r="D35" s="33"/>
+      <c r="E35" s="33"/>
+      <c r="F35" s="33"/>
     </row>
     <row r="36" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="30"/>
-      <c r="B36" s="30"/>
-      <c r="C36" s="30"/>
-      <c r="D36" s="30"/>
-      <c r="E36" s="30"/>
-      <c r="F36" s="30"/>
+      <c r="A36" s="33"/>
+      <c r="B36" s="33"/>
+      <c r="C36" s="33"/>
+      <c r="D36" s="33"/>
+      <c r="E36" s="33"/>
+      <c r="F36" s="33"/>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="36" t="s">
-        <v>102</v>
-      </c>
-      <c r="B37" s="35"/>
-      <c r="C37" s="35"/>
-      <c r="D37" s="35"/>
-      <c r="E37" s="35"/>
-      <c r="F37" s="35"/>
+      <c r="A37" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="B37" s="38"/>
+      <c r="C37" s="38"/>
+      <c r="D37" s="38"/>
+      <c r="E37" s="38"/>
+      <c r="F37" s="38"/>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="37" t="s">
-        <v>103</v>
-      </c>
-      <c r="E38" s="38" t="s">
-        <v>104</v>
+      <c r="A38" s="40" t="s">
+        <v>109</v>
+      </c>
+      <c r="E38" s="26" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="37" t="s">
-        <v>105</v>
-      </c>
-      <c r="E39" s="38" t="s">
-        <v>106</v>
+      <c r="A39" s="40" t="s">
+        <v>111</v>
+      </c>
+      <c r="E39" s="26" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="37" t="s">
-        <v>107</v>
-      </c>
-      <c r="E40" s="38" t="s">
-        <v>108</v>
+      <c r="A40" s="40" t="s">
+        <v>113</v>
+      </c>
+      <c r="E40" s="26" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="37" t="s">
-        <v>109</v>
-      </c>
-      <c r="E41" s="38" t="s">
-        <v>110</v>
+      <c r="A41" s="40" t="s">
+        <v>115</v>
+      </c>
+      <c r="E41" s="26" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="37" t="s">
-        <v>111</v>
-      </c>
-      <c r="E42" s="38" t="s">
-        <v>112</v>
+      <c r="A42" s="40" t="s">
+        <v>117</v>
+      </c>
+      <c r="E42" s="26" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="37" t="s">
-        <v>113</v>
-      </c>
-      <c r="E43" s="38" t="s">
-        <v>114</v>
+      <c r="A43" s="40" t="s">
+        <v>119</v>
+      </c>
+      <c r="E43" s="26" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -3585,587 +3631,587 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="21.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="23.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="31.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="15.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="17.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="21.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="23.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="31.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="15.63"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="34.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="40" t="s">
+      <c r="G1" s="42" t="s">
+        <v>121</v>
+      </c>
+      <c r="H1" s="42"/>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="35"/>
+      <c r="B2" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="E2" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="F2" s="12" t="n">
+        <v>5</v>
+      </c>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+    </row>
+    <row r="3" customFormat="false" ht="18.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+    </row>
+    <row r="4" customFormat="false" ht="102.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
+    </row>
+    <row r="5" customFormat="false" ht="177.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="43"/>
+      <c r="H5" s="43"/>
+    </row>
+    <row r="6" customFormat="false" ht="261.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="E6" s="47" t="s">
+        <v>125</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="G6" s="35"/>
+    </row>
+    <row r="7" customFormat="false" ht="44.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="48" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="35"/>
+    </row>
+    <row r="8" customFormat="false" ht="131.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="49" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="G8" s="35"/>
+    </row>
+    <row r="9" customFormat="false" ht="145.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="50" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" s="35"/>
+    </row>
+    <row r="10" customFormat="false" ht="102.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="E10" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10" s="35"/>
+    </row>
+    <row r="11" customFormat="false" ht="87.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="49" t="s">
+        <v>129</v>
+      </c>
+      <c r="E11" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="F11" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="G11" s="35"/>
+    </row>
+    <row r="12" customFormat="false" ht="145.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="51" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="E12" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="F12" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="G12" s="35"/>
+    </row>
+    <row r="13" customFormat="false" ht="189.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="D13" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="E13" s="50" t="s">
+        <v>70</v>
+      </c>
+      <c r="F13" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="G13" s="35"/>
+    </row>
+    <row r="14" customFormat="false" ht="102.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="B14" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="C14" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="D14" s="29" t="s">
+        <v>135</v>
+      </c>
+      <c r="E14" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="G14" s="53" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="189.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="52" t="s">
+        <v>79</v>
+      </c>
+      <c r="B15" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="C15" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="D15" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="E15" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="F15" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="G15" s="54" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="52" t="s">
+        <v>85</v>
+      </c>
+      <c r="B16" s="35"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+    </row>
+    <row r="17" customFormat="false" ht="27.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="52" t="s">
+        <v>92</v>
+      </c>
+      <c r="B17" s="35"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="35"/>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="52" t="s">
+        <v>93</v>
+      </c>
+      <c r="B18" s="35"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
+    </row>
+    <row r="19" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="B19" s="35"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35"/>
+    </row>
+    <row r="20" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="55" t="s">
+        <v>106</v>
+      </c>
+      <c r="B20" s="55"/>
+      <c r="C20" s="55"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="55"/>
+      <c r="G20" s="35"/>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="B21" s="33"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="35"/>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="33"/>
+      <c r="B22" s="33"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="35"/>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="33"/>
+      <c r="B23" s="33"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="35"/>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="33"/>
+      <c r="B24" s="33"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="35"/>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="33"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="35"/>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="33"/>
+      <c r="B26" s="33"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="33"/>
+      <c r="F26" s="33"/>
+      <c r="G26" s="35"/>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="33"/>
+      <c r="B27" s="33"/>
+      <c r="C27" s="33"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="35"/>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="33"/>
+      <c r="B28" s="33"/>
+      <c r="C28" s="33"/>
+      <c r="D28" s="33"/>
+      <c r="E28" s="33"/>
+      <c r="F28" s="33"/>
+      <c r="G28" s="35"/>
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="33"/>
+      <c r="B29" s="33"/>
+      <c r="C29" s="33"/>
+      <c r="D29" s="33"/>
+      <c r="E29" s="33"/>
+      <c r="F29" s="33"/>
+      <c r="G29" s="35"/>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="33"/>
+      <c r="B30" s="33"/>
+      <c r="C30" s="33"/>
+      <c r="D30" s="33"/>
+      <c r="E30" s="33"/>
+      <c r="F30" s="33"/>
+      <c r="G30" s="35"/>
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="33"/>
+      <c r="B31" s="33"/>
+      <c r="C31" s="33"/>
+      <c r="D31" s="33"/>
+      <c r="E31" s="33"/>
+      <c r="F31" s="33"/>
+      <c r="G31" s="35"/>
+    </row>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="33"/>
+      <c r="B32" s="33"/>
+      <c r="C32" s="33"/>
+      <c r="D32" s="33"/>
+      <c r="E32" s="33"/>
+      <c r="F32" s="33"/>
+      <c r="G32" s="35"/>
+    </row>
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="33"/>
+      <c r="B33" s="33"/>
+      <c r="C33" s="33"/>
+      <c r="D33" s="33"/>
+      <c r="E33" s="33"/>
+      <c r="F33" s="33"/>
+      <c r="G33" s="35"/>
+    </row>
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="33"/>
+      <c r="B34" s="33"/>
+      <c r="C34" s="33"/>
+      <c r="D34" s="33"/>
+      <c r="E34" s="33"/>
+      <c r="F34" s="33"/>
+      <c r="G34" s="35"/>
+    </row>
+    <row r="35" customFormat="false" ht="18.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A35" s="56" t="s">
+        <v>108</v>
+      </c>
+      <c r="B35" s="56"/>
+      <c r="C35" s="56"/>
+      <c r="D35" s="56"/>
+      <c r="E35" s="56"/>
+      <c r="F35" s="56"/>
+      <c r="G35" s="35"/>
+    </row>
+    <row r="36" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A36" s="33" t="s">
+        <v>109</v>
+      </c>
+      <c r="B36" s="33"/>
+      <c r="C36" s="57" t="s">
+        <v>138</v>
+      </c>
+      <c r="D36" s="57"/>
+      <c r="E36" s="57"/>
+      <c r="F36" s="57"/>
+      <c r="G36" s="35"/>
+    </row>
+    <row r="37" customFormat="false" ht="30.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A37" s="33" t="s">
+        <v>111</v>
+      </c>
+      <c r="B37" s="33"/>
+      <c r="C37" s="57" t="s">
+        <v>139</v>
+      </c>
+      <c r="D37" s="57"/>
+      <c r="E37" s="57"/>
+      <c r="F37" s="57"/>
+      <c r="G37" s="35"/>
+    </row>
+    <row r="38" customFormat="false" ht="59" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A38" s="33" t="s">
+        <v>140</v>
+      </c>
+      <c r="B38" s="33"/>
+      <c r="C38" s="57" t="s">
+        <v>141</v>
+      </c>
+      <c r="D38" s="57"/>
+      <c r="E38" s="57"/>
+      <c r="F38" s="57"/>
+      <c r="G38" s="35"/>
+    </row>
+    <row r="39" customFormat="false" ht="30.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A39" s="33" t="s">
         <v>115</v>
       </c>
-      <c r="H1" s="40"/>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="32"/>
-      <c r="B2" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" s="8" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" s="9" t="n">
-        <v>3</v>
-      </c>
-      <c r="E2" s="10" t="n">
-        <v>4</v>
-      </c>
-      <c r="F2" s="11" t="n">
-        <v>5</v>
-      </c>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-    </row>
-    <row r="3" customFormat="false" ht="18.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="42" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-    </row>
-    <row r="4" customFormat="false" ht="102.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-    </row>
-    <row r="5" customFormat="false" ht="177.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="44" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="45" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
-    </row>
-    <row r="6" customFormat="false" ht="261.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="16" t="s">
+      <c r="B39" s="33"/>
+      <c r="C39" s="57" t="s">
+        <v>142</v>
+      </c>
+      <c r="D39" s="57"/>
+      <c r="E39" s="57"/>
+      <c r="F39" s="57"/>
+      <c r="G39" s="35"/>
+    </row>
+    <row r="40" customFormat="false" ht="30.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A40" s="33" t="s">
         <v>117</v>
       </c>
-      <c r="D6" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="E6" s="46" t="s">
+      <c r="B40" s="33"/>
+      <c r="C40" s="57" t="s">
+        <v>143</v>
+      </c>
+      <c r="D40" s="57"/>
+      <c r="E40" s="57"/>
+      <c r="F40" s="57"/>
+      <c r="G40" s="35"/>
+    </row>
+    <row r="41" customFormat="false" ht="44.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A41" s="33" t="s">
         <v>119</v>
       </c>
-      <c r="F6" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="G6" s="32"/>
-    </row>
-    <row r="7" customFormat="false" ht="44.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="32"/>
-    </row>
-    <row r="8" customFormat="false" ht="131.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="48" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="F8" s="24" t="s">
-        <v>121</v>
-      </c>
-      <c r="G8" s="32"/>
-    </row>
-    <row r="9" customFormat="false" ht="145.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="E9" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="F9" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="G9" s="32"/>
-    </row>
-    <row r="10" customFormat="false" ht="102.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="B10" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="C10" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="D10" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="E10" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="F10" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="G10" s="32"/>
-    </row>
-    <row r="11" customFormat="false" ht="87.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="B11" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="C11" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="D11" s="48" t="s">
-        <v>123</v>
-      </c>
-      <c r="E11" s="22" t="s">
-        <v>124</v>
-      </c>
-      <c r="F11" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="G11" s="32"/>
-    </row>
-    <row r="12" customFormat="false" ht="145.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="B12" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="C12" s="50" t="s">
-        <v>56</v>
-      </c>
-      <c r="D12" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="E12" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="F12" s="22" t="s">
-        <v>125</v>
-      </c>
-      <c r="G12" s="32"/>
-    </row>
-    <row r="13" customFormat="false" ht="189.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="B13" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="C13" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="D13" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="E13" s="49" t="s">
-        <v>65</v>
-      </c>
-      <c r="F13" s="22" t="s">
-        <v>127</v>
-      </c>
-      <c r="G13" s="32"/>
-    </row>
-    <row r="14" customFormat="false" ht="102.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="51" t="s">
-        <v>68</v>
-      </c>
-      <c r="B14" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="C14" s="26" t="s">
-        <v>128</v>
-      </c>
-      <c r="D14" s="26" t="s">
-        <v>129</v>
-      </c>
-      <c r="E14" s="26" t="s">
-        <v>72</v>
-      </c>
-      <c r="F14" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="G14" s="52" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="189.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="B15" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="C15" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="D15" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="E15" s="26" t="s">
-        <v>131</v>
-      </c>
-      <c r="F15" s="26" t="s">
-        <v>79</v>
-      </c>
-      <c r="G15" s="53" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="51" t="s">
-        <v>80</v>
-      </c>
-      <c r="B16" s="32"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="32"/>
-    </row>
-    <row r="17" customFormat="false" ht="27.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="51" t="s">
-        <v>86</v>
-      </c>
-      <c r="B17" s="32"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="32"/>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="51" t="s">
-        <v>87</v>
-      </c>
-      <c r="B18" s="32"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="32"/>
-    </row>
-    <row r="19" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="B19" s="32"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="32"/>
-    </row>
-    <row r="20" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="54" t="s">
-        <v>100</v>
-      </c>
-      <c r="B20" s="54"/>
-      <c r="C20" s="54"/>
-      <c r="D20" s="54"/>
-      <c r="E20" s="54"/>
-      <c r="F20" s="54"/>
-      <c r="G20" s="32"/>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="30" t="s">
-        <v>101</v>
-      </c>
-      <c r="B21" s="30"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="32"/>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="30"/>
-      <c r="B22" s="30"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="32"/>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="30"/>
-      <c r="B23" s="30"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="32"/>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="30"/>
-      <c r="B24" s="30"/>
-      <c r="C24" s="30"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="30"/>
-      <c r="G24" s="32"/>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="30"/>
-      <c r="B25" s="30"/>
-      <c r="C25" s="30"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="30"/>
-      <c r="F25" s="30"/>
-      <c r="G25" s="32"/>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="30"/>
-      <c r="B26" s="30"/>
-      <c r="C26" s="30"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="30"/>
-      <c r="F26" s="30"/>
-      <c r="G26" s="32"/>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="30"/>
-      <c r="B27" s="30"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="30"/>
-      <c r="G27" s="32"/>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="30"/>
-      <c r="B28" s="30"/>
-      <c r="C28" s="30"/>
-      <c r="D28" s="30"/>
-      <c r="E28" s="30"/>
-      <c r="F28" s="30"/>
-      <c r="G28" s="32"/>
-    </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="30"/>
-      <c r="B29" s="30"/>
-      <c r="C29" s="30"/>
-      <c r="D29" s="30"/>
-      <c r="E29" s="30"/>
-      <c r="F29" s="30"/>
-      <c r="G29" s="32"/>
-    </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="30"/>
-      <c r="B30" s="30"/>
-      <c r="C30" s="30"/>
-      <c r="D30" s="30"/>
-      <c r="E30" s="30"/>
-      <c r="F30" s="30"/>
-      <c r="G30" s="32"/>
-    </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="30"/>
-      <c r="B31" s="30"/>
-      <c r="C31" s="30"/>
-      <c r="D31" s="30"/>
-      <c r="E31" s="30"/>
-      <c r="F31" s="30"/>
-      <c r="G31" s="32"/>
-    </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="30"/>
-      <c r="B32" s="30"/>
-      <c r="C32" s="30"/>
-      <c r="D32" s="30"/>
-      <c r="E32" s="30"/>
-      <c r="F32" s="30"/>
-      <c r="G32" s="32"/>
-    </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="30"/>
-      <c r="B33" s="30"/>
-      <c r="C33" s="30"/>
-      <c r="D33" s="30"/>
-      <c r="E33" s="30"/>
-      <c r="F33" s="30"/>
-      <c r="G33" s="32"/>
-    </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="30"/>
-      <c r="B34" s="30"/>
-      <c r="C34" s="30"/>
-      <c r="D34" s="30"/>
-      <c r="E34" s="30"/>
-      <c r="F34" s="30"/>
-      <c r="G34" s="32"/>
-    </row>
-    <row r="35" customFormat="false" ht="18.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="55" t="s">
-        <v>102</v>
-      </c>
-      <c r="B35" s="55"/>
-      <c r="C35" s="55"/>
-      <c r="D35" s="55"/>
-      <c r="E35" s="55"/>
-      <c r="F35" s="55"/>
-      <c r="G35" s="32"/>
-    </row>
-    <row r="36" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="30" t="s">
-        <v>103</v>
-      </c>
-      <c r="B36" s="30"/>
-      <c r="C36" s="56" t="s">
-        <v>132</v>
-      </c>
-      <c r="D36" s="56"/>
-      <c r="E36" s="56"/>
-      <c r="F36" s="56"/>
-      <c r="G36" s="32"/>
-    </row>
-    <row r="37" customFormat="false" ht="30.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="30" t="s">
-        <v>105</v>
-      </c>
-      <c r="B37" s="30"/>
-      <c r="C37" s="56" t="s">
-        <v>133</v>
-      </c>
-      <c r="D37" s="56"/>
-      <c r="E37" s="56"/>
-      <c r="F37" s="56"/>
-      <c r="G37" s="32"/>
-    </row>
-    <row r="38" customFormat="false" ht="59" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="30" t="s">
-        <v>134</v>
-      </c>
-      <c r="B38" s="30"/>
-      <c r="C38" s="56" t="s">
-        <v>135</v>
-      </c>
-      <c r="D38" s="56"/>
-      <c r="E38" s="56"/>
-      <c r="F38" s="56"/>
-      <c r="G38" s="32"/>
-    </row>
-    <row r="39" customFormat="false" ht="30.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="30" t="s">
-        <v>109</v>
-      </c>
-      <c r="B39" s="30"/>
-      <c r="C39" s="56" t="s">
-        <v>136</v>
-      </c>
-      <c r="D39" s="56"/>
-      <c r="E39" s="56"/>
-      <c r="F39" s="56"/>
-      <c r="G39" s="32"/>
-    </row>
-    <row r="40" customFormat="false" ht="30.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="30" t="s">
-        <v>111</v>
-      </c>
-      <c r="B40" s="30"/>
-      <c r="C40" s="56" t="s">
-        <v>137</v>
-      </c>
-      <c r="D40" s="56"/>
-      <c r="E40" s="56"/>
-      <c r="F40" s="56"/>
-      <c r="G40" s="32"/>
-    </row>
-    <row r="41" customFormat="false" ht="44.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="30" t="s">
-        <v>113</v>
-      </c>
-      <c r="B41" s="30"/>
-      <c r="C41" s="56"/>
-      <c r="D41" s="56"/>
-      <c r="E41" s="56"/>
-      <c r="F41" s="56"/>
-      <c r="G41" s="32"/>
+      <c r="B41" s="33"/>
+      <c r="C41" s="57"/>
+      <c r="D41" s="57"/>
+      <c r="E41" s="57"/>
+      <c r="F41" s="57"/>
+      <c r="G41" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="21">
@@ -4214,342 +4260,342 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="26.63"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="57" t="s">
-        <v>138</v>
+      <c r="B1" s="58" t="s">
+        <v>144</v>
       </c>
       <c r="C1" s="58" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="D1" s="59" t="s">
-        <v>140</v>
-      </c>
-      <c r="E1" s="57" t="s">
-        <v>141</v>
-      </c>
-      <c r="F1" s="57" t="s">
-        <v>142</v>
-      </c>
-      <c r="G1" s="57"/>
+        <v>146</v>
+      </c>
+      <c r="E1" s="58" t="s">
+        <v>147</v>
+      </c>
+      <c r="F1" s="58" t="s">
+        <v>148</v>
+      </c>
+      <c r="G1" s="58"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="60" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="C2" s="61" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="D2" s="61" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="E2" s="62"/>
       <c r="F2" s="63"/>
-      <c r="G2" s="57"/>
+      <c r="G2" s="58"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="60" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="C3" s="64" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="D3" s="64" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="E3" s="64" t="s">
-        <v>148</v>
-      </c>
-      <c r="F3" s="65" t="n">
+        <v>154</v>
+      </c>
+      <c r="F3" s="63" t="n">
         <v>45245</v>
       </c>
       <c r="G3" s="58" t="s">
-        <v>149</v>
-      </c>
-      <c r="H3" s="66"/>
+        <v>155</v>
+      </c>
+      <c r="H3" s="65"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="60" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="C4" s="64" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="D4" s="64" t="s">
-        <v>151</v>
-      </c>
-      <c r="E4" s="67" t="s">
-        <v>152</v>
-      </c>
-      <c r="F4" s="65" t="n">
+        <v>157</v>
+      </c>
+      <c r="E4" s="66" t="s">
+        <v>158</v>
+      </c>
+      <c r="F4" s="63" t="n">
         <v>45245</v>
       </c>
       <c r="G4" s="58" t="s">
-        <v>153</v>
-      </c>
-      <c r="H4" s="66"/>
+        <v>159</v>
+      </c>
+      <c r="H4" s="65"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="60" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="C5" s="64" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="D5" s="64" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="E5" s="61" t="s">
-        <v>157</v>
-      </c>
-      <c r="F5" s="65" t="n">
+        <v>163</v>
+      </c>
+      <c r="F5" s="63" t="n">
         <v>45259</v>
       </c>
       <c r="G5" s="58" t="s">
-        <v>158</v>
-      </c>
-      <c r="H5" s="66"/>
+        <v>164</v>
+      </c>
+      <c r="H5" s="65"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="60" t="s">
-        <v>154</v>
-      </c>
-      <c r="C6" s="67" t="s">
-        <v>159</v>
+        <v>160</v>
+      </c>
+      <c r="C6" s="66" t="s">
+        <v>165</v>
       </c>
       <c r="D6" s="64" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="E6" s="61" t="s">
-        <v>161</v>
-      </c>
-      <c r="F6" s="65" t="n">
+        <v>167</v>
+      </c>
+      <c r="F6" s="63" t="n">
         <v>45259</v>
       </c>
       <c r="G6" s="58" t="s">
-        <v>162</v>
-      </c>
-      <c r="H6" s="66"/>
+        <v>168</v>
+      </c>
+      <c r="H6" s="65"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="60" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="C7" s="64" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="D7" s="64" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="E7" s="61" t="s">
-        <v>166</v>
-      </c>
-      <c r="F7" s="65" t="n">
+        <v>172</v>
+      </c>
+      <c r="F7" s="63" t="n">
         <v>45280</v>
       </c>
       <c r="G7" s="58" t="s">
-        <v>167</v>
-      </c>
-      <c r="H7" s="66"/>
+        <v>173</v>
+      </c>
+      <c r="H7" s="65"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="68" t="s">
-        <v>163</v>
-      </c>
-      <c r="C8" s="67" t="s">
-        <v>168</v>
-      </c>
-      <c r="D8" s="67" t="s">
+      <c r="B8" s="60" t="s">
         <v>169</v>
       </c>
+      <c r="C8" s="66" t="s">
+        <v>174</v>
+      </c>
+      <c r="D8" s="66" t="s">
+        <v>175</v>
+      </c>
       <c r="E8" s="61" t="s">
-        <v>170</v>
-      </c>
-      <c r="F8" s="65" t="n">
+        <v>176</v>
+      </c>
+      <c r="F8" s="63" t="n">
         <v>45280</v>
       </c>
       <c r="G8" s="58" t="s">
-        <v>171</v>
-      </c>
-      <c r="H8" s="66"/>
+        <v>177</v>
+      </c>
+      <c r="H8" s="65"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="68" t="s">
-        <v>172</v>
-      </c>
-      <c r="C9" s="67" t="s">
-        <v>173</v>
+      <c r="B9" s="60" t="s">
+        <v>178</v>
+      </c>
+      <c r="C9" s="66" t="s">
+        <v>179</v>
       </c>
       <c r="D9" s="64" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="E9" s="61" t="s">
-        <v>175</v>
-      </c>
-      <c r="F9" s="65" t="n">
+        <v>181</v>
+      </c>
+      <c r="F9" s="63" t="n">
         <v>45308</v>
       </c>
       <c r="G9" s="58" t="s">
-        <v>176</v>
-      </c>
-      <c r="H9" s="66"/>
+        <v>182</v>
+      </c>
+      <c r="H9" s="65"/>
     </row>
     <row r="10" customFormat="false" ht="21.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="68" t="s">
-        <v>172</v>
+      <c r="B10" s="60" t="s">
+        <v>178</v>
       </c>
       <c r="C10" s="64" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="D10" s="64" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="E10" s="61" t="s">
-        <v>179</v>
-      </c>
-      <c r="F10" s="65" t="n">
+        <v>185</v>
+      </c>
+      <c r="F10" s="63" t="n">
         <v>45308</v>
       </c>
       <c r="G10" s="58" t="s">
-        <v>180</v>
-      </c>
-      <c r="H10" s="66"/>
+        <v>186</v>
+      </c>
+      <c r="H10" s="65"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="68" t="s">
-        <v>181</v>
-      </c>
-      <c r="C11" s="67" t="s">
-        <v>182</v>
+      <c r="B11" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="C11" s="66" t="s">
+        <v>188</v>
       </c>
       <c r="D11" s="64" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="E11" s="61" t="s">
-        <v>184</v>
-      </c>
-      <c r="F11" s="65" t="n">
+        <v>190</v>
+      </c>
+      <c r="F11" s="63" t="n">
         <v>45322</v>
       </c>
       <c r="G11" s="58" t="s">
-        <v>185</v>
-      </c>
-      <c r="H11" s="66"/>
+        <v>191</v>
+      </c>
+      <c r="H11" s="65"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="68" t="s">
-        <v>181</v>
+      <c r="B12" s="60" t="s">
+        <v>187</v>
       </c>
       <c r="C12" s="64" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="D12" s="64" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="E12" s="61" t="s">
-        <v>188</v>
-      </c>
-      <c r="F12" s="65" t="n">
+        <v>194</v>
+      </c>
+      <c r="F12" s="63" t="n">
         <v>45322</v>
       </c>
       <c r="G12" s="58" t="s">
-        <v>189</v>
-      </c>
-      <c r="H12" s="66"/>
+        <v>195</v>
+      </c>
+      <c r="H12" s="65"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="68" t="s">
-        <v>190</v>
+      <c r="B13" s="60" t="s">
+        <v>196</v>
       </c>
       <c r="C13" s="64" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="D13" s="64" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="E13" s="61" t="s">
-        <v>193</v>
-      </c>
-      <c r="F13" s="65" t="n">
+        <v>199</v>
+      </c>
+      <c r="F13" s="63" t="n">
         <v>45336</v>
       </c>
       <c r="G13" s="58" t="s">
-        <v>194</v>
-      </c>
-      <c r="H13" s="66"/>
+        <v>200</v>
+      </c>
+      <c r="H13" s="65"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="68" t="s">
-        <v>190</v>
+      <c r="B14" s="60" t="s">
+        <v>196</v>
       </c>
       <c r="C14" s="64" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="D14" s="64" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="E14" s="61" t="s">
-        <v>197</v>
-      </c>
-      <c r="F14" s="65" t="n">
+        <v>203</v>
+      </c>
+      <c r="F14" s="63" t="n">
         <v>45336</v>
       </c>
       <c r="G14" s="58" t="s">
-        <v>198</v>
-      </c>
-      <c r="H14" s="66"/>
+        <v>204</v>
+      </c>
+      <c r="H14" s="65"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="68" t="s">
-        <v>199</v>
-      </c>
-      <c r="C15" s="67" t="s">
-        <v>200</v>
+      <c r="B15" s="60" t="s">
+        <v>205</v>
+      </c>
+      <c r="C15" s="66" t="s">
+        <v>206</v>
       </c>
       <c r="D15" s="64" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="E15" s="61" t="s">
-        <v>202</v>
-      </c>
-      <c r="F15" s="65" t="n">
+        <v>208</v>
+      </c>
+      <c r="F15" s="63" t="n">
         <v>45343</v>
       </c>
       <c r="G15" s="58"/>
-      <c r="H15" s="66"/>
+      <c r="H15" s="65"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="69"/>
-      <c r="E16" s="70"/>
-      <c r="F16" s="71"/>
-      <c r="G16" s="66"/>
-      <c r="H16" s="66"/>
+      <c r="B16" s="67"/>
+      <c r="E16" s="68"/>
+      <c r="F16" s="69"/>
+      <c r="G16" s="65"/>
+      <c r="H16" s="65"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G18" s="66"/>
-      <c r="H18" s="66"/>
+      <c r="G18" s="65"/>
+      <c r="H18" s="65"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G19" s="66"/>
-      <c r="H19" s="66"/>
+      <c r="G19" s="65"/>
+      <c r="H19" s="65"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G20" s="66"/>
-      <c r="H20" s="66"/>
+      <c r="G20" s="65"/>
+      <c r="H20" s="65"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G23" s="66"/>
-      <c r="H23" s="66"/>
+      <c r="G23" s="65"/>
+      <c r="H23" s="65"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G24" s="66"/>
-      <c r="H24" s="66"/>
+      <c r="G24" s="65"/>
+      <c r="H24" s="65"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G25" s="66"/>
-      <c r="H25" s="66"/>
+      <c r="G25" s="65"/>
+      <c r="H25" s="65"/>
     </row>
   </sheetData>
   <autoFilter ref="C1:D16"/>
